--- a/data/snt_sorted-options_adolescent.xlsx
+++ b/data/snt_sorted-options_adolescent.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27211"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matty_gee/Dropbox/Projects/social_navigation_task/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="37840" windowHeight="23980"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="145">
   <si>
     <t>decision_num</t>
   </si>
@@ -451,6 +459,9 @@
   </si>
   <si>
     <t>checked</t>
+  </si>
+  <si>
+    <t>slide_num</t>
   </si>
 </sst>
 </file>
@@ -488,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -522,11 +533,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -539,12 +563,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -833,474 +864,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="88.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4">
-        <v>-1</v>
-      </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
       <c r="E3" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="4">
-        <v>-1</v>
-      </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
       <c r="E6" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="4">
-        <v>-1</v>
-      </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
       <c r="E10" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="4">
-        <v>-1</v>
-      </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
       <c r="E15" s="4">
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I15" t="s">
         <v>16</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>140</v>
+      <c r="B16" s="7">
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
+      <c r="D16" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1311,25 +1388,28 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
+      <c r="B17" s="7">
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1340,576 +1420,636 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="4">
-        <v>-1</v>
-      </c>
       <c r="E18" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
       <c r="E19" s="4">
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="4">
-        <v>-1</v>
-      </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
       <c r="E21" s="4">
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
       <c r="E22" s="4">
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="s">
         <v>23</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7">
+        <v>86</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
       <c r="E23" s="4">
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>24</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
       <c r="E24" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
         <v>25</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
       <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>26</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
       <c r="E26" s="4">
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>28</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
       <c r="E28" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>29</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="4">
-        <v>-1</v>
-      </c>
       <c r="E29" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>30</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7">
+        <v>112</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
       <c r="E30" s="4">
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
       <c r="E31" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>32</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7">
+        <v>128</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
       <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
       <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
         <v>34</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>35</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7">
+        <v>136</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="4">
-        <v>-1</v>
-      </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
         <v>36</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="7">
+        <v>140</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="4">
-        <v>-1</v>
-      </c>
       <c r="E36" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
         <v>37</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>140</v>
+      <c r="B37" s="7">
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
+      <c r="D37" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -1920,802 +2060,881 @@
       <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7">
+        <v>146</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
       <c r="E38" s="4">
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
         <v>39</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="7">
+        <v>149</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
       <c r="E39" s="4">
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>40</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7">
+        <v>151</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="4">
-        <v>-1</v>
-      </c>
       <c r="E40" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
         <v>41</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7">
+        <v>154</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="4">
-        <v>-1</v>
-      </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4">
         <v>0</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
         <v>42</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7">
+        <v>157</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
       <c r="E42" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>43</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="7">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
       <c r="E43" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
         <v>44</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
       <c r="E44" s="4">
         <v>0</v>
       </c>
       <c r="F44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I44" t="s">
         <v>45</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="4">
-        <v>-1</v>
-      </c>
       <c r="E45" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
         <v>46</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="7">
+        <v>166</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="4">
-        <v>-1</v>
-      </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
         <v>47</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="7">
+        <v>169</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
       <c r="E47" s="4">
         <v>0</v>
       </c>
       <c r="F47" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
         <v>48</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="7">
+        <v>174</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="4">
-        <v>-1</v>
-      </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
         <v>49</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="7">
+        <v>175</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="4">
-        <v>-1</v>
-      </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
         <v>50</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="7">
+        <v>178</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="4">
-        <v>-1</v>
-      </c>
       <c r="E50" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
         <v>51</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="7">
+        <v>182</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
       <c r="E51" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>52</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="7">
+        <v>185</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
       <c r="E52" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>53</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="7">
+        <v>187</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
       <c r="E53" s="4">
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>54</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="7">
+        <v>190</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
       <c r="E54" s="4">
         <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I54" t="s">
         <v>55</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="7">
+        <v>193</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
       <c r="E55" s="4">
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I55" t="s">
         <v>56</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="7">
+        <v>195</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="4">
-        <v>-1</v>
-      </c>
       <c r="E56" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
         <v>57</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="7">
+        <v>197</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I57" t="s">
         <v>58</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="7">
+        <v>199</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="4">
-        <v>-1</v>
-      </c>
       <c r="E58" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F58" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="4">
         <v>0</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
         <v>59</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="7">
+        <v>201</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="4">
-        <v>-1</v>
-      </c>
       <c r="E59" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
         <v>60</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="7">
+        <v>203</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
       <c r="E60" s="4">
         <v>0</v>
       </c>
       <c r="F60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I60" t="s">
         <v>61</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="7">
+        <v>206</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
       <c r="E61" s="4">
         <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>62</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="7">
+        <v>208</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
       <c r="E62" s="4">
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="4">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>63</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="7">
+        <v>211</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
       <c r="E63" s="4">
         <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="4">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>64</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="7">
+        <v>214</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
       <c r="E64" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
         <v>65</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>